--- a/data/income_statement/2digits/size/43_IS_MEDIUM.xlsx
+++ b/data/income_statement/2digits/size/43_IS_MEDIUM.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>43-Specialised construction activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>43-Specialised construction activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,1106 +841,1251 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>4155539.75827</v>
+        <v>4220820.56824</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>4948284.466629999</v>
+        <v>4959056.98434</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>7132731.153609999</v>
+        <v>7352709.886940001</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>8808607.015110001</v>
+        <v>8958014.83774</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>10406819.04715</v>
+        <v>10655952.20174</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>12684826.54038</v>
+        <v>12950454.62237</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>14230412.41286</v>
+        <v>15442325.74904</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>17668410.42617</v>
+        <v>17808287.36556</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>22779447.1937</v>
+        <v>22873441.3037</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>22169160.84385</v>
+        <v>22448585.29052</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>20390061.67165</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>20254688.00014</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>22547298.951</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>3794911.153889999</v>
+        <v>3825160.26095</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>4652021.5364</v>
+        <v>4635514.22758</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>6734000.85252</v>
+        <v>6931973.223680001</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>8276600.999299999</v>
+        <v>8410147.505860001</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>9656352.367479999</v>
+        <v>9849833.260770001</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>11894597.7293</v>
+        <v>12132708.89248</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>13465650.05438</v>
+        <v>14628384.25033</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>16876658.28453</v>
+        <v>17019999.53837</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>21676462.05148</v>
+        <v>21715438.7748</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>20666770.05847</v>
+        <v>20935959.58601</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>18695746.05962</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>18542636.20094</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>20360662.225</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>265957.87163</v>
+        <v>301857.52138</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>216751.92799</v>
+        <v>239228.90793</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>320867.5414</v>
+        <v>348524.96435</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>409724.34381</v>
+        <v>426827.7122000001</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>527607.1538300001</v>
+        <v>582610.85398</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>551815.8886299999</v>
+        <v>596128.90566</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>494813.5686</v>
+        <v>567076.1465799999</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>489183.4590500001</v>
+        <v>508762.8281</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>714208.45948</v>
+        <v>745621.9916599999</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>1063444.37275</v>
+        <v>1097684.82248</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>1393904.512</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>1430216.26053</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>1904636.833</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>94670.73274999998</v>
+        <v>93802.78591000001</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>79511.00224</v>
+        <v>84313.84883</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>77862.75968999999</v>
+        <v>72211.69890999999</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>122281.672</v>
+        <v>121039.61968</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>222859.52584</v>
+        <v>223508.08699</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>238412.92245</v>
+        <v>221616.82423</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>269948.78988</v>
+        <v>246865.35213</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>302568.68259</v>
+        <v>279524.9990900001</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>388776.68274</v>
+        <v>412380.53724</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>438946.4126299999</v>
+        <v>414940.88203</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>300411.10003</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>281835.53867</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>281999.893</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>30676.90673999999</v>
+        <v>22478.25408</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>25970.59319</v>
+        <v>20852.91794</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>36617.33912</v>
+        <v>49978.10701</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>54180.33238</v>
+        <v>55754.71436</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>64078.15968</v>
+        <v>54956.03483</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>70017.41514</v>
+        <v>67432.3075</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>85739.07918</v>
+        <v>86398.44018000001</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>182646.0179799999</v>
+        <v>191235.34936</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>245325.91577</v>
+        <v>246934.17331</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>301141.30689</v>
+        <v>334646.8079600001</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>237298.37504</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>234498.73301</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>397094.272</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>15671.34001</v>
+        <v>13889.69436</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>16533.59114</v>
+        <v>15048.74746</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>27246.54336</v>
+        <v>40020.27118</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>34505.09673</v>
+        <v>35186.30983</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>44279.47121</v>
+        <v>39969.76955999999</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>45970.19178</v>
+        <v>49078.82004</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>51938.70112</v>
+        <v>54916.6374</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>135118.84955</v>
+        <v>148547.77033</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>198546.86514</v>
+        <v>199567.86509</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>252182.00219</v>
+        <v>289108.61362</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>205922.43745</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>202750.6378</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>338115.102</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>2501.504310000001</v>
+        <v>2313.40027</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>7140.653179999999</v>
+        <v>3702.22923</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>7998.96824</v>
+        <v>8308.163759999999</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>17852.65057</v>
+        <v>18635.59306</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>12011.08787</v>
+        <v>7403.734280000001</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>14923.55665</v>
+        <v>9008.8783</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>25256.22522</v>
+        <v>24292.44745</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>27679.39368</v>
+        <v>25062.08474</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>26444.75414</v>
+        <v>26182.38114</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>23759.92303</v>
+        <v>21643.42627</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>7330.918559999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>6286.818359999999</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>26330.329</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>12504.06242</v>
+        <v>6275.15945</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>2296.34887</v>
+        <v>2101.94125</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>1371.82752</v>
+        <v>1649.67207</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>1822.58508</v>
+        <v>1932.81147</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>7787.6006</v>
+        <v>7582.53099</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>9123.66671</v>
+        <v>9344.60916</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>8544.152840000001</v>
+        <v>7189.35533</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>19847.77475</v>
+        <v>17625.49429</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>20334.29649</v>
+        <v>21183.92708</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>25199.38167</v>
+        <v>23894.76807</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>24045.01903</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>25461.27685</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>32648.841</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>4124862.85153</v>
+        <v>4198342.31416</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>4922313.87344</v>
+        <v>4938204.066400001</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>7096113.81449</v>
+        <v>7302731.77993</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>8754426.68273</v>
+        <v>8902260.123380002</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>10342740.88747</v>
+        <v>10600996.16691</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>12614809.12524</v>
+        <v>12883022.31487</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>14144673.33368</v>
+        <v>15355927.30886</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>17485764.40819</v>
+        <v>17617052.0162</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>22534121.27793</v>
+        <v>22626507.13039</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>21868019.53696</v>
+        <v>22113938.48256</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>20152763.29661</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>20020189.26713</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>22150204.679</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>3566230.47507</v>
+        <v>3618656.35836</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>4272045.02275</v>
+        <v>4297735.88547</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>6197371.96979</v>
+        <v>6388207.682159999</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>7663192.84833</v>
+        <v>7839537.81351</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>9103848.24951</v>
+        <v>9381553.549290001</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>11139440.34052</v>
+        <v>11441558.4819</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>12504789.95794</v>
+        <v>13753129.96716</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>15354614.15621</v>
+        <v>15577380.46849</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>19741998.68884001</v>
+        <v>19915934.91376</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>19538763.61355</v>
+        <v>19727318.62925</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>17775061.27015</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>17773764.86111</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>20045850.028</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>526917.45288</v>
+        <v>511407.00051</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>434653.61329</v>
+        <v>436836.76735</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>689411.2468600001</v>
+        <v>710563.1551800001</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>877964.8966800001</v>
+        <v>902119.22715</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>886337.6918799998</v>
+        <v>861215.9317899999</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>1400658.35491</v>
+        <v>1383087.95579</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>1386036.57994</v>
+        <v>1386983.14772</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>1958086.60968</v>
+        <v>1806919.3943</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>3051940.81967</v>
+        <v>2844771.30418</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>2401620.3407</v>
+        <v>2271173.70639</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>2449296.76378</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>2278259.29272</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>2570133.979</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>629272.22812</v>
+        <v>631066.5955000001</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>819345.7725699999</v>
+        <v>768057.6153199999</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>1142346.80358</v>
+        <v>1101320.1594</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>1722650.53289</v>
+        <v>1685931.76616</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>1879928.47187</v>
+        <v>1843179.66959</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>2152720.24059</v>
+        <v>2136106.54618</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>3093143.46176</v>
+        <v>3198404.91386</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>3786882.990160001</v>
+        <v>3708057.29292</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>5089165.1598</v>
+        <v>4934022.287780001</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>3906541.49925</v>
+        <v>3735618.14771</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>3625863.43971</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>3597122.79671</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>5323186.056</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>2379271.76371</v>
+        <v>2448706.98031</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>3001352.38672</v>
+        <v>3075898.27678</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>4353799.50133</v>
+        <v>4558372.67089</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>5041524.07841</v>
+        <v>5221938.888940001</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>6269665.37191</v>
+        <v>6600111.25806</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>7517285.98841</v>
+        <v>7847280.65687</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>7968040.167450001</v>
+        <v>9115494.631370001</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>9523973.233139999</v>
+        <v>9983965.51661</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>11499268.56182</v>
+        <v>12039644.28309</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>13103112.43306</v>
+        <v>13598880.64459</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>11578626.51884</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>11776513.81785</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>12025025.907</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>30769.03036</v>
+        <v>27475.78204</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>16693.25017</v>
+        <v>16943.22602</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>11814.41802</v>
+        <v>17951.69669</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>21053.34035</v>
+        <v>29547.93126</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>67916.71385000001</v>
+        <v>77046.68985</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>68775.75661</v>
+        <v>75083.32306</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>57569.74879</v>
+        <v>52247.27421</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>85671.32323000001</v>
+        <v>78438.26466000002</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>101624.14755</v>
+        <v>97497.03871000001</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>127489.34054</v>
+        <v>121646.13056</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>121274.54782</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>121868.95383</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>127504.086</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>558632.3764600001</v>
+        <v>579685.9558</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>650268.85069</v>
+        <v>640468.18093</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>898741.8446999999</v>
+        <v>914524.09777</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>1091233.8344</v>
+        <v>1062722.30987</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>1238892.63796</v>
+        <v>1219442.61762</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>1475368.78472</v>
+        <v>1441463.83297</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>1639883.37574</v>
+        <v>1602797.3417</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>2131150.25198</v>
+        <v>2039671.54771</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>2792122.58909</v>
+        <v>2710572.21663</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>2329255.92341</v>
+        <v>2386619.85331</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>2377702.02646</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>2246424.40602</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>2104354.651</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>307347.43643</v>
+        <v>281808.36276</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>387605.5245400001</v>
+        <v>365226.55867</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>539032.9310099999</v>
+        <v>528799.52467</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>656954.47744</v>
+        <v>628803.7426700001</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>733414.4335500001</v>
+        <v>702145.0451900001</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>919290.9044000001</v>
+        <v>898558.7039799999</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>963901.52648</v>
+        <v>947479.71613</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>1282142.23129</v>
+        <v>1175294.52104</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>1662000.80991</v>
+        <v>1494425.56065</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>1485326.18281</v>
+        <v>1390153.9685</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>1423549.72891</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1316006.95356</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1341423.686</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>5018.91234</v>
+        <v>964.7515999999999</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>1051.1957</v>
+        <v>276.03832</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>144.5956</v>
+        <v>138.55179</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>943.8218099999999</v>
+        <v>675.1199600000001</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>2856.67314</v>
+        <v>2418.69877</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>2115.355309999999</v>
+        <v>2042.80835</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>3839.29121</v>
+        <v>3719.49519</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>3759.29128</v>
+        <v>3003.653389999999</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>2804.527209999999</v>
+        <v>2128.18929</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>1979.06242</v>
+        <v>784.7573</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>6592.42018</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>6590.04596</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>6729.201</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>48242.18584999999</v>
+        <v>48305.09776999999</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>48844.13388</v>
+        <v>48481.21029</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>78819.53765000001</v>
+        <v>74400.09499000001</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>100845.35238</v>
+        <v>94958.40509999999</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>106945.41692</v>
+        <v>99319.69067</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>118748.01579</v>
+        <v>113913.02913</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>135369.39812</v>
+        <v>133572.88775</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>177439.16398</v>
+        <v>161717.42644</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>285030.47482</v>
+        <v>258927.31145</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>202826.54333</v>
+        <v>181244.31286</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>223969.26449</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>214798.0947</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>219512.089</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>254086.33824</v>
+        <v>232538.51339</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>337710.19496</v>
+        <v>316469.31006</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>460068.79776</v>
+        <v>454260.87789</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>555165.30325</v>
+        <v>533170.2176099999</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>623612.34349</v>
+        <v>600406.65575</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>798427.5333</v>
+        <v>782602.8665</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>824692.8371499999</v>
+        <v>810187.33319</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>1100943.77603</v>
+        <v>1010573.44121</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>1374165.80788</v>
+        <v>1233370.05991</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>1280520.57706</v>
+        <v>1208124.89834</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>1192988.04424</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1094618.8129</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>1115182.396</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>251284.94003</v>
+        <v>297877.5930399999</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>262663.32615</v>
+        <v>275241.62226</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>359708.91369</v>
+        <v>385724.5731</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>434279.35696</v>
+        <v>433918.5672</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>505478.20441</v>
+        <v>517297.5724299999</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>556077.8803199999</v>
+        <v>542905.12899</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>675981.84926</v>
+        <v>655317.62557</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>849008.02069</v>
+        <v>864377.0266699999</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>1130121.77918</v>
+        <v>1216146.65598</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>843929.7405999999</v>
+        <v>996465.88481</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>954152.2975499999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>930417.4524600001</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>762930.965</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>105956.77393</v>
+        <v>111375.62819</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>93337.31672999999</v>
+        <v>103120.55414</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>137953.7296</v>
+        <v>118793.55148</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>114863.47589</v>
+        <v>126569.23942</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>205603.09694</v>
+        <v>239561.60798</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>225490.24626</v>
+        <v>243483.85031</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>382417.2603499999</v>
+        <v>382113.07853</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>422784.65903</v>
+        <v>521563.44398</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>417271.39457</v>
+        <v>424154.2732700001</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>1310876.9854</v>
+        <v>1763552.7498</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>705239.07661</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>729836.98075</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>1225310.641</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>3538.34303</v>
+        <v>15406.07679</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>12136.11051</v>
+        <v>11591.40023</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>6340.57594</v>
+        <v>6505.639980000001</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>7976.403770000002</v>
+        <v>9083.868339999999</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>14957.16632</v>
+        <v>8622.56691</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>17211.666</v>
+        <v>8133.975820000001</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>18050.38835</v>
+        <v>12490.68306</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>30524.60056</v>
+        <v>21167.87769</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>11265.42311</v>
+        <v>14586.85324</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>11139.24718</v>
+        <v>5990.617979999999</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>20164.61287</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>38727.08353</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>10695.374</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>1496.49957</v>
+        <v>4036.92733</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>1306.49735</v>
+        <v>461.52821</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>250.81829</v>
+        <v>2609.68217</v>
       </c>
       <c r="F27" s="48" t="n">
         <v>1104.73036</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>251.95662</v>
+        <v>6456.881919999999</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>515.23222</v>
+        <v>516.94258</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>3842.67215</v>
+        <v>8765.003849999999</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>1582.75939</v>
+        <v>706.32767</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>1038.01437</v>
+        <v>1181.54448</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>4292.612599999999</v>
+        <v>7273.640780000001</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>15703.23257</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>8743.43319</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>1407.671</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>20882.77555</v>
+        <v>17028.84814</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>17530.13382</v>
+        <v>17011.50232</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>19660.17955</v>
+        <v>17236.5494</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>27338.9999</v>
+        <v>28797.64202</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>29828.29222</v>
+        <v>24947.84605</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>34271.48132</v>
+        <v>32325.42076</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>41535.59997</v>
+        <v>40957.84052999999</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>43759.96807</v>
+        <v>46340.81604000001</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>66243.54126</v>
+        <v>68333.64275</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>99342.51595999999</v>
+        <v>139493.00186</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>110432.43671</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>102950.3953</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>93915.189</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>1383.41231</v>
+        <v>1168.93583</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>1403.05732</v>
+        <v>1376.66164</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>725.87647</v>
+        <v>691.75482</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>1231.29706</v>
+        <v>1405.87584</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>1245.44373</v>
+        <v>1188.55855</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>1128.20841</v>
+        <v>1522.39927</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>767.62901</v>
+        <v>697.0874</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>1086.50572</v>
+        <v>934.14538</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>2616.541670000001</v>
+        <v>2637.92036</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>1635.92657</v>
+        <v>1547.85353</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>1809.49844</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>1804.49974</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>1951.391</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>1941.10781</v>
+        <v>1864.1069</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>752.75476</v>
+        <v>466.36386</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>2339.76502</v>
+        <v>1453.56336</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>1619.06422</v>
+        <v>2480.45749</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>4221.2381</v>
+        <v>2344.25903</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>4257.51742</v>
+        <v>2999.54391</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>5626.929569999999</v>
+        <v>3139.23312</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>3325.00099</v>
+        <v>3298.46717</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>17332.06889</v>
+        <v>3019.14705</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>5996.32983</v>
+        <v>7104.51971</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>10805.05577</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>10703.49677</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>8102.183</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>3184.312440000001</v>
+        <v>732.0298899999999</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>2103.39648</v>
+        <v>1756.46147</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>15574.84786</v>
+        <v>1613.59261</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>1335.14983</v>
+        <v>1299.41979</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>2233.03121</v>
+        <v>1431.46726</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>2213.25509</v>
+        <v>2062.73524</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>8519.54041</v>
+        <v>2587.34705</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>11652.25274</v>
+        <v>10250.81283</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>3959.86413</v>
+        <v>2723.77236</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>5013.309819999999</v>
+        <v>4082.6918</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>8190.6958</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>5142.01884</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>17965.887</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>48798.39803</v>
+        <v>49866.22598999999</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>41763.56082999999</v>
+        <v>41167.98769</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>64997.35484</v>
+        <v>67171.14368000001</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>38816.30842</v>
+        <v>45797.33066000001</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>113373.23654</v>
+        <v>124801.14249</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>119138.2268</v>
+        <v>153605.05439</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>266784.37264</v>
+        <v>276559.9984099999</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>239271.99449</v>
+        <v>359772.52311</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>249490.21704</v>
+        <v>270292.91974</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>1100833.90797</v>
+        <v>1510366.02836</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>452422.32154</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>499780.66956</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>974867.071</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>201.40719</v>
@@ -2048,64 +2094,69 @@
         <v>0</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>19.36604</v>
+        <v>43.32416000000001</v>
       </c>
       <c r="F33" s="48" t="n">
         <v>15.13383</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>4140.04519</v>
+        <v>4.00037</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>2205.06702</v>
+        <v>44.44172</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>853.5403700000002</v>
+        <v>207.20304</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>535.7821300000001</v>
+        <v>542.90781</v>
       </c>
       <c r="K33" s="48" t="n">
         <v>546.13</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>905.8767999999999</v>
+        <v>940.90628</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>831.68233</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>16.677</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>221.79476</v>
+        <v>210.52996</v>
       </c>
       <c r="D34" s="48" t="n">
-        <v>313.10059</v>
+        <v>229.35725</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>27.31699</v>
+        <v>1.73042</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>28.99216</v>
+        <v>19.35582</v>
       </c>
       <c r="G34" s="48" t="n">
         <v>282.90718</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>60.63072</v>
+        <v>4.75395</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>48.16815999999999</v>
+        <v>184.00617</v>
       </c>
       <c r="J34" s="48" t="n">
         <v>137.74878</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>505.37663</v>
+        <v>13.35754</v>
       </c>
       <c r="L34" s="48" t="n">
         <v>26.63619</v>
@@ -2113,248 +2164,283 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>38.013</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>24308.72324</v>
+        <v>20860.54017</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>16028.70507</v>
+        <v>29059.29147</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>28017.6286</v>
+        <v>21466.57088</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>35397.39634000001</v>
+        <v>36565.42526999999</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>35069.77983</v>
+        <v>69481.97822000002</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>44488.96126</v>
+        <v>42268.58267</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>36388.41972</v>
+        <v>36524.6759</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>90908.04616</v>
+        <v>78411.8175</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>64274.21747</v>
+        <v>60818.98575000001</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>81690.62248000001</v>
+        <v>86726.85330999999</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>84879.54058000002</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>61985.38382</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>116351.185</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>67950.97689000001</v>
+        <v>69064.10979</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>51971.49555</v>
+        <v>63097.62068000001</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>100988.65313</v>
+        <v>98483.30639</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>103609.4614</v>
+        <v>114952.67815</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>143831.68618</v>
+        <v>159188.84345</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>172592.61017</v>
+        <v>212776.59875</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>312771.2744</v>
+        <v>302352.86013</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>321374.56953</v>
+        <v>415037.5472799999</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>349530.13366</v>
+        <v>350503.06495</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>1190396.04146</v>
+        <v>1508347.488</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>522680.16724</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>563845.2116899999</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>1077069.945</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>599.05127</v>
+        <v>4158.75423</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>945.10374</v>
+        <v>867.7851800000001</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>2720.442340000001</v>
+        <v>2684.92415</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>1442.57959</v>
+        <v>1368.94532</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>1609.18071</v>
+        <v>3289.03004</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>2221.51777</v>
+        <v>3152.21974</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>2478.5271</v>
+        <v>3346.55732</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>8661.90641</v>
+        <v>7987.58869</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>2686.3129</v>
+        <v>5490.40621</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>12089.41559</v>
+        <v>10824.33856</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>2378.15042</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>2286.89597</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>3740.968</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>8879.933499999999</v>
+        <v>9153.33196</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>5148.401859999999</v>
+        <v>5069.18906</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>14614.65341</v>
+        <v>13614.02602</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>21727.33568</v>
+        <v>22063.36599</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>17542.17141</v>
+        <v>16064.72983</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>24211.35065</v>
+        <v>29092.55782</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>32106.98255</v>
+        <v>22899.02168</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>37973.31045999999</v>
+        <v>35553.91243</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>37596.58304999999</v>
+        <v>38106.90709</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>44590.83606</v>
+        <v>58743.2558</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>48050.38294</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>46303.13473000001</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>20865.489</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>290.97601</v>
+        <v>291.03471</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>1781.80719</v>
+        <v>1689.77198</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>1380.97255</v>
+        <v>104.82909</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>526.3910999999999</v>
+        <v>423.59901</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>2012.33953</v>
+        <v>422.3185500000001</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>310.21349</v>
+        <v>310.89369</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>9420.769370000002</v>
+        <v>415.27858</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>12119.79595</v>
+        <v>11269.52587</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>3149.422</v>
+        <v>481.54209</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>1211.62159</v>
+        <v>1623.96911</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>1856.02359</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>1717.90576</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>2695.967</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>50854.10618000001</v>
+        <v>49317.51583999999</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>38840.09546</v>
+        <v>33122.0231</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>73731.621</v>
+        <v>71697.37256</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>41092.30183</v>
+        <v>45719.45157</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>110331.06287</v>
+        <v>127446.50598</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>114030.79558</v>
+        <v>149047.37748</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>251717.37676</v>
+        <v>255377.82854</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>238808.18598</v>
+        <v>339702.42158</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>270013.33647</v>
+        <v>285680.27424</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>1094405.43727</v>
+        <v>1397497.8509</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>444657.34288</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>488252.13595</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>1017579.828</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>127.42547</v>
+        <v>63.62647</v>
       </c>
       <c r="D41" s="48" t="n">
         <v>55.58755</v>
@@ -2363,55 +2449,60 @@
         <v>22.702</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>1468.71347</v>
+        <v>1419.45778</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>3473.86709</v>
+        <v>50.95113000000001</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>1870.9425</v>
+        <v>105.20152</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>989.3704799999999</v>
+        <v>236.82589</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>528.9909700000001</v>
+        <v>458.5780499999999</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>696.02595</v>
+        <v>321.63918</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>1401.87986</v>
+        <v>1436.90934</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>779.68951</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>29.625</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
-        <v>125.27285</v>
+        <v>120.10138</v>
       </c>
       <c r="D42" s="48" t="n">
         <v>152.06885</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>30.86788</v>
+        <v>1258.08207</v>
       </c>
       <c r="F42" s="48" t="n">
-        <v>23.29872</v>
+        <v>403.41861</v>
       </c>
       <c r="G42" s="48" t="n">
         <v>0.31017</v>
       </c>
       <c r="H42" s="48" t="n">
-        <v>13.86065</v>
+        <v>3.01907</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>27.36348</v>
+        <v>60.42412</v>
       </c>
       <c r="J42" s="48" t="n">
         <v>0</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>7074.211609999999</v>
+        <v>5959.745200000001</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>5048.430899999999</v>
+        <v>22141.19496</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>8487.39395</v>
+        <v>9101.370500000001</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>37328.84101</v>
+        <v>43554.43987</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>8862.7544</v>
+        <v>11914.99775</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>29933.92953</v>
+        <v>31065.32943</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>16030.88466</v>
+        <v>20016.924</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>23282.37976</v>
+        <v>20065.52066</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>35388.45329</v>
+        <v>20422.29614</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>36696.85109</v>
+        <v>38221.16429</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>24958.5779</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>25285.13928</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>32158.068</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>61492.32933000001</v>
+        <v>70361.2558</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>63593.65878</v>
+        <v>62993.93394</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>90700.20703000001</v>
+        <v>98339.73458000002</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>137847.76518</v>
+        <v>162403.46881</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>138479.3474</v>
+        <v>162036.46381</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>191560.70889</v>
+        <v>209625.60894</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>246822.57834</v>
+        <v>259968.6948</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>319162.11462</v>
+        <v>300702.0181</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>450973.60596</v>
+        <v>442173.73331</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>649026.2220600001</v>
+        <v>710830.9813699999</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>536362.2912000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>475114.68021</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>360083.574</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>55631.10234999999</v>
+        <v>64819.55881</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>59709.81988</v>
+        <v>58806.69218</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>85608.27236</v>
+        <v>88525.00433999998</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>132139.53393</v>
+        <v>157961.93269</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>130270.24133</v>
+        <v>141562.28041</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>180570.18783</v>
+        <v>185952.54394</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>231053.67816</v>
+        <v>237848.47047</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>301215.629</v>
+        <v>282033.16669</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>425806.00941</v>
+        <v>417623.6029899999</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>614893.18008</v>
+        <v>640434.44578</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>502297.67071</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>434608.3111699999</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>337425.28</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>5861.22698</v>
+        <v>5541.69699</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>3883.8389</v>
+        <v>4187.24176</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>5091.93467</v>
+        <v>9814.730240000001</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>5708.23125</v>
+        <v>4441.536119999999</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>8209.10607</v>
+        <v>20474.1834</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>10990.52106</v>
+        <v>23673.065</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>15768.90018</v>
+        <v>22120.22433</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>17946.48562</v>
+        <v>18668.85141</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>25167.59655</v>
+        <v>24550.13032</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>34133.04198</v>
+        <v>70396.53559</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>34064.62049</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>40506.36904000001</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>22658.294</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>227798.40774</v>
+        <v>269827.85564</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>240435.48855</v>
+        <v>252270.62178</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>305973.78313</v>
+        <v>307695.08361</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>307685.60627</v>
+        <v>283131.6596599999</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>428770.26777</v>
+        <v>435633.8731500001</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>417414.80752</v>
+        <v>363986.77161</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>498805.25687</v>
+        <v>475109.1491699999</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>631255.9955699999</v>
+        <v>670200.90527</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>746889.43413</v>
+        <v>847624.13099</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>315384.46248</v>
+        <v>540840.16524</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>600348.91572</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>621294.54131</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>551088.0870000001</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>26807.06073</v>
+        <v>25353.54659</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>45466.75015</v>
+        <v>37877.16940999999</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>48523.69854</v>
+        <v>45757.26439</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>86576.33407</v>
+        <v>108763.95737</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>95732.88024000001</v>
+        <v>84157.55322</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>94575.37664</v>
+        <v>89781.66356</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>110760.16867</v>
+        <v>131808.45811</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>152983.85666</v>
+        <v>120215.896</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>178874.46848</v>
+        <v>162025.12844</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>230609.80717</v>
+        <v>278432.66031</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>260613.4032</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>240479.58926</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>264254.906</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>1251.22823</v>
+        <v>1693.81034</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>5201.78671</v>
+        <v>3904.5378</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>3295.313110000001</v>
+        <v>1624.39725</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>3997.51681</v>
+        <v>5487.66246</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>19327.69216</v>
+        <v>19085.32387</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>4722.39798</v>
+        <v>4585.06054</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>4928.56558</v>
+        <v>8297.54571</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>1485.65591</v>
+        <v>1384.06118</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>1994.87127</v>
+        <v>2355.30486</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>7531.16224</v>
+        <v>7055.08975</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>3404.62957</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>3458.18011</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>3969.113</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>25555.8325</v>
+        <v>23659.73625</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>40264.96344</v>
+        <v>33972.63161</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>45228.38543</v>
+        <v>44132.86714</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>82578.81726</v>
+        <v>103276.29491</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>76405.18808000001</v>
+        <v>65072.22935</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>89852.97865999999</v>
+        <v>85196.60302000001</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>105831.60309</v>
+        <v>123510.9124</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>151498.20075</v>
+        <v>118831.83482</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>176879.59721</v>
+        <v>159669.82358</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>223078.64493</v>
+        <v>271377.57056</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>257208.77363</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>237021.40915</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>260285.793</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>38917.30558000001</v>
+        <v>45513.65843</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>34262.43254000001</v>
+        <v>38917.27114</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>279419.30134</v>
+        <v>319345.90686</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>59719.44016</v>
+        <v>61543.30202</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>74231.25215</v>
+        <v>80739.79112000001</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>200205.31014</v>
+        <v>206470.77947</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>103759.24094</v>
+        <v>134025.75837</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>251208.18432</v>
+        <v>243856.10972</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>161855.1764</v>
+        <v>151650.07111</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>344377.64062</v>
+        <v>335829.2736799999</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>187057.81724</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>170044.46095</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>148089.508</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>1645.07637</v>
+        <v>1894.14843</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>894.5199600000002</v>
+        <v>1046.19402</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>808.1833800000001</v>
+        <v>872.5356899999999</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>1828.18722</v>
+        <v>2518.93872</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>4155.49887</v>
+        <v>1476.71359</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>4954.982029999999</v>
+        <v>1387.68051</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>3799.908210000001</v>
+        <v>3615.76196</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>2410.16983</v>
+        <v>3039.1937</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>1554.05691</v>
+        <v>1862.85411</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>7252.61237</v>
+        <v>10902.05064</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>2885.665320000001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>2041.57587</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>4623.363</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>5571.558199999999</v>
+        <v>6543.39589</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>6394.286239999999</v>
+        <v>6450.4142</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>5171.673</v>
+        <v>5590.34352</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>4476.423299999999</v>
+        <v>6122.57565</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>18960.77203</v>
+        <v>20058.961</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>7513.465969999998</v>
+        <v>6933.677</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>10249.37732</v>
+        <v>18421.17529</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>7327.86827</v>
+        <v>5948.15898</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>10279.787</v>
+        <v>12985.75933</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>26254.31911</v>
+        <v>33985.73342</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>13749.37557</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>14138.32402</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>9916.040000000001</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>31700.67101</v>
+        <v>37076.11411000001</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>26973.62634</v>
+        <v>31420.66292</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>273439.44496</v>
+        <v>312883.02765</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>53414.82964</v>
+        <v>52901.78765</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>51114.98124999999</v>
+        <v>59204.11653</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>187736.86214</v>
+        <v>198149.42196</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>89709.95541</v>
+        <v>111988.82112</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>241470.14622</v>
+        <v>234868.75704</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>150021.33249</v>
+        <v>136801.45767</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>310870.70914</v>
+        <v>290941.48962</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>170422.77635</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>153864.56106</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>133550.105</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>215688.16289</v>
+        <v>249667.7438</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>251639.80616</v>
+        <v>251230.52005</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>75078.18033</v>
+        <v>34106.44114</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>334542.50018</v>
+        <v>330352.31501</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>450271.8958599999</v>
+        <v>439051.63525</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>311784.87402</v>
+        <v>247297.6557</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>505806.1846</v>
+        <v>472891.8489099999</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>533031.66791</v>
+        <v>546560.69155</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>763908.72621</v>
+        <v>857999.18832</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>201616.62903</v>
+        <v>483443.55187</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>673904.50168</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>691729.6696200001</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>667253.485</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>45198.11115999999</v>
+        <v>44840.04774000001</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>48407.74043</v>
+        <v>49639.36739</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>66177.5735</v>
+        <v>66296.59675</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>70579.65635999999</v>
+        <v>76963.31088999998</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>89354.70995</v>
+        <v>87286.46536</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>97585.58636</v>
+        <v>93331.67879000001</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>110004.77202</v>
+        <v>109289.37321</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>142112.71562</v>
+        <v>140397.26611</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>169213.58217</v>
+        <v>169901.46098</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>162478.94147</v>
+        <v>202646.56513</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>174529.00169</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>168484.52493</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>190457.632</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>170490.05173</v>
+        <v>204827.69606</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>203232.06573</v>
+        <v>201591.15266</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>8900.606830000002</v>
+        <v>-32190.15560999999</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>263962.84382</v>
+        <v>253389.00412</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>360917.18591</v>
+        <v>351765.16989</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>214199.28766</v>
+        <v>153965.97691</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>395801.4125800001</v>
+        <v>363602.4757000001</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>390918.95229</v>
+        <v>406163.42544</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>594695.1440399999</v>
+        <v>688097.72734</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>39137.68756</v>
+        <v>280796.98674</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>499375.49999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>523245.14469</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>476795.853</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>768</v>
+        <v>608</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>919</v>
+        <v>719</v>
       </c>
       <c r="E59" s="35" t="n">
+        <v>908</v>
+      </c>
+      <c r="F59" s="35" t="n">
         <v>1110</v>
       </c>
-      <c r="F59" s="35" t="n">
-        <v>1367</v>
-      </c>
       <c r="G59" s="35" t="n">
-        <v>1277</v>
+        <v>1084</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>1460</v>
+        <v>1223</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>1593</v>
+        <v>1346</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>1845</v>
+        <v>1413</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>2165</v>
+        <v>1608</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>1288</v>
+        <v>1145</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>847</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>